--- a/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3403,4 +3404,1846 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3677</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6932</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5886</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4745</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>40.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5246,4 +5247,5410 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H142"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>338.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.9049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.8439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8264</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1560</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0951</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6816</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0119</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9291</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8791</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7932</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7462</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6288</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5912</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5648</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4877</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4629</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3777</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3626</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3063</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004716</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信诚量化阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10596,7 +10597,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>91.13</t>
@@ -10648,6 +10648,106 @@
       </c>
       <c r="H142" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>141</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.82</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10661,7 +10662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10672,17 +10673,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10692,14 +10713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>141</v>
-      </c>
-      <c r="D2" t="n">
-        <v>75.53</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>358.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.1986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -10708,14 +10751,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.04</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.4752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -10724,14 +10789,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.73</v>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -10740,13 +10827,8920 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0688</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>101.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5319</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4579</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3280</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7180</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6960</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5979</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5385</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5374</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2570</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010854</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>71.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2300</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2289</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2100</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1967</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>47.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0921</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0900</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0386</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0045</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9022</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8105</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7896</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7545</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7261</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6930</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6886</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6411</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6392</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6183</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6019</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5553</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5535</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4550</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4443</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4238</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3910</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010855</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>29.47</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010188</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方红新海混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>37.30</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010538</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国泰惠元混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>37.30</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>010189</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中欧添益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>001604</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>浙商汇金转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>235</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>26.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19639,7 +19640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19650,17 +19651,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19670,14 +19691,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>235</v>
-      </c>
-      <c r="D2" t="n">
-        <v>105.96</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>322.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.2497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -19686,14 +19729,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>141</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75.53</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>230.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -19702,14 +19767,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.04</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -19718,14 +19805,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.73</v>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0712</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -19734,13 +19843,6775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1492</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0688</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0488</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9393</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6667</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6438</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6431</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5714</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5426</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5348</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004716</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>信诚量化阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>55.57</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>179</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>235</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>141</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>26.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26494,7 +26495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26505,17 +26506,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26525,14 +26546,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>179</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.68</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.2330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -26541,14 +26584,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>235</v>
-      </c>
-      <c r="D3" t="n">
-        <v>105.96</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.0263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -26557,14 +26622,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>141</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75.53</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -26573,14 +26660,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.04</v>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7670</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -26589,14 +26698,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.73</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -26605,13 +26736,6299 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1216</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0805</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0722</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8307</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7839</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6873</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6225</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5993</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5691</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5240</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5012</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>206008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华丰盛债券</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>72.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>37.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001016</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002714</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华金城灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001939</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>45.09</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002075</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>167</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>179</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>235</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>141</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>26.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="D2" t="n">
-        <v>49.1</v>
+        <v>33.87</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D3" t="n">
-        <v>56.68</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="D4" t="n">
-        <v>105.96</v>
+        <v>56.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="D5" t="n">
-        <v>75.53</v>
+        <v>105.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="D6" t="n">
-        <v>26.04</v>
+        <v>75.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>28.73</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>26.82</v>
       </c>
     </row>
@@ -600,6 +617,4584 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>107.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9591</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5539</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009817</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>43.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001770</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001765</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009818</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>红塔红土稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>43.88</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6999,7 +11594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13853,7 +18448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22830,7 +27425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28235,7 +32830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30077,7 +34672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31577,7 +36172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/000776-广发证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="D2" t="n">
-        <v>33.87</v>
+        <v>35.74</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="D3" t="n">
-        <v>49.1</v>
+        <v>33.87</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D4" t="n">
-        <v>56.68</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="D5" t="n">
-        <v>105.96</v>
+        <v>56.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="D6" t="n">
-        <v>75.53</v>
+        <v>105.96</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="D7" t="n">
-        <v>26.04</v>
+        <v>75.53</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>28.73</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1490 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>37</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>26.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1527</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6838</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4570</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003332</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方荣发定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003064</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方荣欢定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>61.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2094,5524 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7691</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009400</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015443</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001633</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012435</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014850</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001324</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011050</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘裕新混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001765</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001770</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001634</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>100.45</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014851</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长信稳健成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009401</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011051</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘裕新混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012436</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>万家招瑞回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>015444</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>-0.0037</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5194,7 +12189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11594,7 +18589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18448,7 +25443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27425,7 +34420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32830,7 +39825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34672,7 +41667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36170,1464 +43165,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10.3098</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>229.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.1527</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.8190</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4397</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0299</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8142</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6838</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>630001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商领先企业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6186</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5219</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>290002</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰信先行策略混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4570</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4359</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3256</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3028</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2937</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1901</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003343</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华弘惠灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1871</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1812</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1543</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>41.27</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1465</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003332</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方荣发定期开放混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1367</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003064</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方荣欢定期开放混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>29.85</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1289</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0849</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003344</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华弘惠灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0800</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0660</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005248</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0607</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001791</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>290014</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>泰信现代服务业混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>83.98</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008184</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>新华沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>350001</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>天治财富增长混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>61.35</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>512570</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>易方达中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004212</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中融量化智选混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001792</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>519165</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>新华鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>23.19</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004783</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中融量化智选混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>